--- a/FSDAtestHPC/test-results/graphics_test.xlsx
+++ b/FSDAtestHPC/test-results/graphics_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="107">
   <si>
     <t>FileName</t>
   </si>
@@ -511,6 +511,308 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>rng('default')
+seed=11;
+negstate=-30;
+n=200;
+X1 = mtR(n,0,seed)*2-1;
+X2 = mtR(n,0,negstate)*2-1;
+X3 = mtR(n,0,negstate)*2-1;
+X4 = mtR(n,0,negstate)*2-1;
+res=mtR(n,1,negstate);
+% Generate y
+y = log(4 + sin(3*X1) + abs(X2) + X3.^2 + X4 + .1*res );
+X = [X1 X2 X3 X4];
+% Apply the ace algorithm
+out= ace(y,X);
+% Show the output graphically using function aceplot
+aceplot(out)</t>
+  </si>
+  <si>
+    <t>load fisheriris;
+% Create scatter plot matrix with specific legends
+[H,AX,BigAx]=gplotmatrix(meas,[],species);
+% The legens are not clickable
+% [H,AX,BigAx]=gplotmatrix(meas,[],species,[],[],[],[],'grpbars')
+add2spm(H,AX,BigAx)
+% Now the legends become clickable</t>
+  </si>
+  <si>
+    <t>n=100;
+p=3;
+X=randn(n,p);
+y=100+randn(n,1);
+sel=51:100;
+y(sel)=y(sel)+2;
+group=ones(n,1);
+group(sel)=2;
+[H,AX,BigAx] = gplotmatrix(X,y,group);
+% The legengs are not clickable
+add2yX(H,AX,BigAx)
+% Now the legends become clickable</t>
+  </si>
+  <si>
+    <t>% This example reproduces Figure 1 of Corbellini, Riani and Atkinson,
+% 2015, Statistical Methods and Applications
+close all
+X=load('writingdata.txt');
+out=boxplotb(X);
+xlabel('horizontal coordinate')
+ylabel('vertical coordinate')
+title('Bivariate boxplot of the writing data at time $t=5$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>restrfact=5;
+rng('default') % Reinitialize the random number generator to its startup configuration
+rng(20000);
+ktrue=3;
+% n = number of observations
+n=150;
+% v= number of dimensions
+v=2;
+% Imposed average overlap
+BarOmega=0.04;
+out=MixSim(ktrue,v,'BarOmega',BarOmega, 'restrfactor',restrfact);
+% data generation given centroids and cov matrices
+[Y,id]=simdataset(n, out.Pi, out.Mu, out.S);
+nsamp=1000;
+% Computation of information criterion
+out=tclustIC(Y,'cleanpool',false,'plots',0,'nsamp',nsamp);
+% Computation of the best solutions
+% Plot first 3 best solutions using as Information criterion CLACLA
+disp('Best 9 solutions using CLACLA')
+ThreshRandIndex=0.8;
+NumberOfBestSolutions=9;
+[outCLACLA]=tclustICsol(out,'whichIC','CLACLA','plots',0,'NumberOfBestSolutions',NumberOfBestSolutions,'ThreshRandIndex',ThreshRandIndex);
+% Car-bike plot to show what are the most relevant solutions
+carbikeplot(outCLACLA)</t>
+  </si>
+  <si>
+    <t>X=load('ozone.txt');
+% Tranform the response using logs
+X(:,end)=log(X(:,end));
+% Add a time trend
+X=[(-40:39)' X];
+% Define y
+y=X(:,end);
+% Define X
+X=X(:,1:end-1);
+labels={'Time','1','2','3','4','5','6','7','8'};
+% Robust model selection using Cp
+[Cpms]=FSRms(y,X,'labels',labels);
+% Candlestick plot
+cdsplot(Cpms);</t>
+  </si>
+  <si>
+    <t>N=[51	64	32	29	17	59	66	70;
+53	90	78	75	22	115	117	86;
+71	111	50	40	11	79	88	177;
+1	7	5	5	4	9	8	5;
+7	11	4	3	2	2	17	18;
+7	13	12	11	11	18	19	17;
+21	37	14	26	9	14	34	61;
+12	35	19	6	7	21	30	28;
+10	7	7	3	1	8	12	8;
+4	7	7	6	2	7	6	13;
+8	22	7	10	5	10	27	17;
+25	45	38	38	13	48	59	52;
+18	27	20	19	9	13	29	53;
+35	61	29	14	12	30	63	58;
+2	4	3	1	4	nan  nan	nan	  ;
+2	8	2	5	2	nan  nan	nan;
+1	5	4	6	3	nan  nan	nan;
+3	3	1	3	4	nan  nan	nan];
+% rowslab = cell containing row labels
+rowslab={'money','future','unemployment','circumstances',...
+'hard','economic','egoism','employment','finances',...
+'war','housing','fear','health','work','comfort','disagreement',...
+'world','to_live'};
+% colslab = cell containing column labels
+colslab={'unqualified','cep','bepc','high_school_diploma','university',...
+'thirty','fifty','more_fifty'};
+if verLessThan('matlab','8.2.0')==0
+tableN=array2table(N,'VariableNames',colslab,'RowNames',rowslab);
+% Extract just active rows
+Nactive=tableN(1:14,1:5);
+Nsupr=tableN(15:18,1:5);
+Nsupc=tableN(1:14,6:8);
+Sup=struct;
+Sup.r=Nsupr;
+Sup.c=Nsupc;
+% Compute Correspondence analysis
+else
+Nactive=N(1:14,1:5);
+Lr=rowslab(1:14);
+Lc=colslab(1:5);
+Sup=struct;
+Sup.r=N(15:end,1:5);
+Sup.Lr=rowslab(15:end);
+Sup.c=N(1:14,6:8);
+Sup.Lc=colslab(6:8);
+end
+% Compute correpondence analysis
+out=CorAna(Nactive,'Sup',Sup,'plots',0,'dispresults',false);
+% Show the correspodence analysis plot.
+% Rows and columns are showN in principal coordinates
+CorAnaplot(out)</t>
+  </si>
+  <si>
+    <t>n=100;
+p=4;
+state1=141243498;
+randn('state', state1);
+Y=randn(n,p);
+kk=[1:10];
+Y(kk,:)=Y(kk,:)+4;
+[fre]=unibiv(Y);
+m0=20;
+bs=fre(1:m0,1);
+[out]=FSMeda(Y,bs,'init',30);
+% Produce monitoring covariances plot with all the default options
+covplot(out)</t>
+  </si>
+  <si>
+    <t>XX=load('wool.txt');
+y=XX(:,end);
+X=XX(:,1:end-1);
+% FSRfan and fanplot with all default options
+[out]=FSRfan(y,X);
+fanplot(out);</t>
+  </si>
+  <si>
+    <t>close all;
+y = randn(500,1);
+% four groups
+groups = randi(4,500,1);
+% number of bins
+nbins = 10;
+[ng, hb] = histFS(y,nbins,groups);
+title('Histogram with default color rotation (brcmykg)','interpreter','latex','FontSize',18);</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+randn('state', 123456);
+X=randn(n,p);
+% Uncontaminated data
+y=randn(n,1);
+% Contaminated data
+y(1:5)=y(1:5)+6;
+[out]=LXS(y,X,'nsamp',1000);
+[out]=FSReda(y,X,out.bs);
+levfwdplot(out);</t>
+  </si>
+  <si>
+    <t>n=100;
+p=4;
+state1=141243498;
+randn('state', state1);
+Y=randn(n,p);
+kk=[1:10];
+Y(kk,:)=Y(kk,:)+4;
+[fre]=unibiv(Y);
+m0=20;
+bs=fre(1:m0,1);
+[out]=FSMeda(Y,bs,'plots',1,'init',30);
+% Produce monitoring MD plot with all the default options
+malfwdplot(out)</t>
+  </si>
+  <si>
+    <t>load('loyalty.txt','loyalty');
+y=loyalty(:,4);
+X=loyalty(:,1:3);
+[outLXS]=LXS(y,X,'nsamp',1000);
+[out]=FSReda(y,X,outLXS.bs);
+mdrplot(out);</t>
+  </si>
+  <si>
+    <t>Y=load('head.txt');
+[fre]=unibiv(Y);
+%create an initial subset with the 4 observations, which fell the smallest
+%number of times outside the robust bivariate ellipses, and with the
+%lowest Mahalanobis Distance.
+fre=sortrows(fre,[3 4]);
+m0=20;
+bs=fre(1:m0,1);
+[out]=FSMeda(Y,bs);
+mmdplot(out)</t>
+  </si>
+  <si>
+    <t>load('swiss_banknotes');
+Y=swiss_banknotes.data;
+[fre]=unibiv(Y);
+%create an initial subset with the 4 observations, which fell the smallest
+%number of times outside the robust bivariate ellipses, and with the
+%lowest Mahalanobis Distance.
+fre=sortrows(fre,[3 4]);
+m0=20;
+bs=fre(1:m0,1);
+[outeda]=FSMeda(Y,bs);
+[out]=FSMmmdrs(Y,'bsbsteps',0,'cleanpool',0,'nsimul',80);
+mmdrsplot(out)</t>
+  </si>
+  <si>
+    <t>load('multiple_regression.txt');
+y=multiple_regression(:,4);
+X=multiple_regression(:,1:3);
+outLM=fitlm(X,y,'exclude','');
+res=outLM.Residuals{:,3};
+qqplotFS(res,'X',X,'plots',1);
+title('qqplot of stud. res.')
+% No outlier appears</t>
+  </si>
+  <si>
+    <t>n=100;
+y=randn(n,1);
+X=randn(n,4);
+[out]=LXS(y,X,'nsamp',1000);
+[out]=FSReda(y,X,out.bs);
+% Produce  resfwdplot
+resfwdplot(out);</t>
+  </si>
+  <si>
+    <t>close all
+load fisheriris;
+plo=struct;
+plo.nameY={'SL','SW','PL','PW'};
+figure;
+spmplot(meas,species,plo,'hist');</t>
+  </si>
+  <si>
+    <t>Y=load('geyser2.txt');
+% Make sure (whenever possible) that units 15, 30 and 69 are inside
+% groups which have labels respectively equal to 1, 2 and 3.
+UnitsSameGroup=[15 30 69];
+out=tclustIC(Y,'cleanpool',false,'plots',0,'alpha',0.1,'UnitsSameGroup',UnitsSameGroup);
+tclustICplot(out)</t>
+  </si>
+  <si>
+    <t>n=45;
+a=1;
+b=0.8;
+sig=1;
+seq=(1:n)';
+y=a+b*seq+sig*randn(n,1);
+y(round(n/2):end)=y(round(n/2):end)+10;
+% model with a quadratic trend, non seasonal and level shift
+model=struct;
+model.trend=2;
+model.seasonal=0;
+% Potential level shift position is investigated in positions:
+% t=10, t=11, ..., t=T-10.
+model.lshift=10;
+out=LTSts(y,'model',model);
+wedgeplot(out,'transpose',true,'extradata',[y out.yhat])</t>
+  </si>
+  <si>
+    <t>n=100;
+p=3;
+X=randn(n,p);
+y=100+randn(n,1);
+% Example of the use of function yXplot with all the default options
+yXplot(y,X);</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +832,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -540,14 +842,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,2526 +876,2526 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D2">
-        <v>20.409068000000001</v>
+        <v>25.672169</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D3">
-        <v>5.7393689999999999</v>
+        <v>6.2904580000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D4">
-        <v>5.1835209999999998</v>
+        <v>5.5740369999999997</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5">
-        <v>1.502586</v>
+        <v>1.65358</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D6">
-        <v>2.6375160000000002</v>
+        <v>3.0522420000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>60</v>
+      <c r="F6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0.91365700000000005</v>
+        <v>0.98231599999999997</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
+      <c r="F7" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D8">
-        <v>1.393486</v>
+        <v>1.6539600000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
+      <c r="F8" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D9">
-        <v>0.95521800000000001</v>
+        <v>1.0416920000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+      <c r="F9" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10">
-        <v>0.94736900000000002</v>
+        <v>0.99906099999999998</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
+      <c r="F10" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.66915899999999995</v>
+        <v>0.78659599999999996</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D12">
-        <v>0.46032099999999998</v>
+        <v>0.48046800000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
+      <c r="F12" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13">
-        <v>0.43714500000000001</v>
+        <v>0.47896100000000003</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
+      <c r="F13" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14">
-        <v>0.39061400000000002</v>
+        <v>0.470636</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>62</v>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15">
-        <v>0.76751899999999995</v>
+        <v>0.937083</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D16">
-        <v>3.673054</v>
+        <v>4.2626239999999997</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D17">
-        <v>0.55287500000000001</v>
+        <v>0.61533599999999999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D18">
-        <v>1.99916</v>
+        <v>1.9150659999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>3.68363</v>
+        <v>3.995263</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>0.79196699999999998</v>
+        <v>0.83250900000000005</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D21">
-        <v>1.5139929999999999</v>
+        <v>1.769496</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>116.897982</v>
+        <v>122.281408</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>66</v>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D23">
-        <v>35.295102</v>
+        <v>38.203102999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D24">
-        <v>21.786407000000001</v>
+        <v>24.689518</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
+      <c r="F24" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>0.84900600000000004</v>
+        <v>0.83747899999999997</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
+      <c r="F25" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>0.50276200000000004</v>
+        <v>0.53781299999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>68</v>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>0.44283899999999998</v>
+        <v>0.48418899999999998</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>68</v>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>1.2148330000000001</v>
+        <v>1.3779079999999999</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
+      <c r="F28" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>2.628406</v>
+        <v>2.9849739999999998</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>68</v>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D30">
-        <v>2.553674</v>
+        <v>2.8072360000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>68</v>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D31">
-        <v>1.6443049999999999</v>
+        <v>1.739595</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>68</v>
+      <c r="F31" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.69374899999999995</v>
+        <v>0.74981600000000004</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D33">
-        <v>0.46029399999999998</v>
+        <v>0.55096800000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
+      <c r="F33" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34">
-        <v>0.43011899999999997</v>
+        <v>0.43354300000000001</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
+      <c r="F34" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D35">
-        <v>0.39472600000000002</v>
+        <v>0.439419</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>69</v>
+      <c r="F35" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D36">
-        <v>0.85202800000000001</v>
+        <v>0.944357</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>70</v>
+      <c r="F36" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D37">
-        <v>2.4534039999999999</v>
+        <v>2.698445</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
+      <c r="F37" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D38">
-        <v>2.2504460000000002</v>
+        <v>2.2190699999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>70</v>
+      <c r="F38" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D39">
-        <v>4.8235859999999997</v>
+        <v>5.5267819999999999</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>70</v>
+      <c r="F39" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D40">
-        <v>0.42474800000000001</v>
+        <v>0.50068100000000004</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>71</v>
+      <c r="F40" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D41">
-        <v>0.76388100000000003</v>
+        <v>0.90193599999999996</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>71</v>
+      <c r="F41" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D42">
-        <v>0.74539200000000005</v>
+        <v>0.76097400000000004</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
+      <c r="F42" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D43">
-        <v>1.0563910000000001</v>
+        <v>1.131405</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>71</v>
+      <c r="F43" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D44">
-        <v>0.58368399999999998</v>
+        <v>0.63426400000000005</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>71</v>
+      <c r="F44" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D45">
-        <v>3.1896149999999999</v>
+        <v>3.4466389999999998</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>71</v>
+      <c r="F45" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D46">
-        <v>2.821809</v>
+        <v>2.9057599999999999</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>72</v>
+      <c r="F46" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D47">
-        <v>1.0422579999999999</v>
+        <v>1.138992</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>72</v>
+      <c r="F47" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D48">
-        <v>0.95683499999999999</v>
+        <v>1.0081770000000001</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>72</v>
+      <c r="F48" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D49">
-        <v>0.67095199999999999</v>
+        <v>0.71784300000000001</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>72</v>
+      <c r="F49" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D50">
-        <v>0.94194100000000003</v>
+        <v>1.073437</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>72</v>
+      <c r="F50" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D51">
-        <v>1.0943780000000001</v>
+        <v>1.143686</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>72</v>
+      <c r="F51" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D52">
-        <v>2.359162</v>
+        <v>2.4971540000000001</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>72</v>
+      <c r="F52" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D53">
-        <v>0.80790600000000001</v>
+        <v>0.93148500000000001</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>73</v>
+      <c r="F53" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D54">
-        <v>0.49604300000000001</v>
+        <v>0.59703399999999995</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>73</v>
+      <c r="F54" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D55">
-        <v>0.52263899999999996</v>
+        <v>0.540246</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>73</v>
+      <c r="F55" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D56">
-        <v>0.48944599999999999</v>
+        <v>0.54024000000000005</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>73</v>
+      <c r="F56" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D57">
-        <v>0.73142200000000002</v>
+        <v>0.81544000000000005</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>73</v>
+      <c r="F57" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D58">
-        <v>0.71957899999999997</v>
+        <v>0.81304900000000002</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>73</v>
+      <c r="F58" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D59">
-        <v>1.6477409999999999</v>
+        <v>1.9178059999999999</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>73</v>
+      <c r="F59" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D60">
-        <v>0.68563200000000002</v>
+        <v>0.682562</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>73</v>
+      <c r="F60" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D61">
-        <v>1.4915020000000001</v>
+        <v>1.68547</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>73</v>
+      <c r="F61" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D62">
-        <v>1.036988</v>
+        <v>1.0839570000000001</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D63">
-        <v>1.971139</v>
+        <v>2.1679330000000001</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D64">
-        <v>1.773053</v>
+        <v>2.0068100000000002</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>75</v>
+      <c r="F64" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D65">
-        <v>0.70770999999999995</v>
+        <v>0.79947400000000002</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>75</v>
+      <c r="F65" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D66">
-        <v>0.63241400000000003</v>
+        <v>0.675118</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>75</v>
+      <c r="F66" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D67">
-        <v>0.64128799999999997</v>
+        <v>0.69739600000000002</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>75</v>
+      <c r="F67" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D68">
-        <v>0.76291200000000003</v>
+        <v>0.88807800000000003</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>75</v>
+      <c r="F68" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D69">
-        <v>0.48277900000000001</v>
+        <v>0.53423399999999999</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>75</v>
+      <c r="F69" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D70">
-        <v>0.61585800000000002</v>
+        <v>0.64562900000000001</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>76</v>
+      <c r="F70" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D71">
-        <v>0.45444099999999998</v>
+        <v>0.49653900000000001</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>76</v>
+      <c r="F71" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D72">
-        <v>0.50652399999999997</v>
+        <v>0.52402000000000004</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>76</v>
+      <c r="F72" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D73">
-        <v>5.5884689999999999</v>
+        <v>5.5782239999999996</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>77</v>
+      <c r="F73" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D74">
-        <v>1.7361759999999999</v>
+        <v>1.137424</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>77</v>
+      <c r="F74" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D75">
-        <v>1.4145129999999999</v>
+        <v>1.68251</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>78</v>
+      <c r="F75" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D76">
-        <v>0.89394899999999999</v>
+        <v>1.1160730000000001</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>78</v>
+      <c r="F76" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D77">
-        <v>0.59348500000000004</v>
+        <v>0.70266399999999996</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>79</v>
+      <c r="F77" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D78">
-        <v>0.45530799999999999</v>
+        <v>0.59844399999999998</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>79</v>
+      <c r="F78" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D79">
-        <v>0.48209200000000002</v>
+        <v>0.53552200000000005</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>79</v>
+      <c r="F79" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D80">
-        <v>0.48617100000000002</v>
+        <v>0.54915099999999994</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>79</v>
+      <c r="F80" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D81">
-        <v>0.81068300000000004</v>
+        <v>0.90518799999999999</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>79</v>
+      <c r="F81" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D82">
-        <v>2.0678839999999998</v>
+        <v>2.2489530000000002</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>79</v>
+      <c r="F82" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D83">
-        <v>1.886147</v>
+        <v>2.0991369999999998</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>79</v>
+      <c r="F83" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D84">
-        <v>0.65107800000000005</v>
+        <v>0.75477099999999997</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>79</v>
+      <c r="F84" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D85">
-        <v>0.62468999999999997</v>
+        <v>0.83144600000000002</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D86">
-        <v>1.4538169999999999</v>
+        <v>1.6023579999999999</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D87">
-        <v>0.738707</v>
+        <v>0.85787199999999997</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D88">
-        <v>0.69280399999999998</v>
+        <v>0.60916300000000001</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D89">
-        <v>0.55362199999999995</v>
+        <v>0.58227799999999996</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D90">
-        <v>0.51999099999999998</v>
+        <v>0.58120300000000003</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D91">
-        <v>3.294896</v>
+        <v>3.6746810000000001</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>81</v>
+      <c r="F91" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D92">
-        <v>2.3812549999999999</v>
+        <v>2.593664</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>81</v>
+      <c r="F92" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D93">
-        <v>15.793547999999999</v>
+        <v>17.814512000000001</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>81</v>
+      <c r="F93" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D94">
-        <v>13.702109</v>
+        <v>15.370796</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>81</v>
+      <c r="F94" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D95">
-        <v>5.2208240000000004</v>
+        <v>5.7511679999999998</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>81</v>
+      <c r="F95" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D96">
-        <v>1.918814</v>
+        <v>2.063768</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>81</v>
+      <c r="F96" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D97">
-        <v>2.3952270000000002</v>
+        <v>2.7098680000000002</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>81</v>
+      <c r="F97" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D98">
-        <v>3.2568440000000001</v>
+        <v>3.648803</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>81</v>
+      <c r="F98" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D99">
-        <v>4.2680119999999997</v>
+        <v>4.645543</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>81</v>
+      <c r="F99" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D100">
-        <v>3.4667840000000001</v>
+        <v>3.8070689999999998</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>81</v>
+      <c r="F100" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D101">
-        <v>2.2685529999999998</v>
+        <v>2.5431849999999998</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>81</v>
+      <c r="F101" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D102">
-        <v>1.388415</v>
+        <v>1.6123719999999999</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>81</v>
+      <c r="F102" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D103">
-        <v>1.9921409999999999</v>
+        <v>2.210019</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>81</v>
+      <c r="F103" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D104">
-        <v>1.1187480000000001</v>
+        <v>1.2956890000000001</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>81</v>
+      <c r="F104" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D105">
-        <v>1.2071419999999999</v>
+        <v>1.328076</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>81</v>
+      <c r="F105" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D106">
-        <v>34.646652000000003</v>
+        <v>37.982317999999999</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>82</v>
+      <c r="F106" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D107">
-        <v>0.47329300000000002</v>
+        <v>0.50192400000000004</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>82</v>
+      <c r="F107" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D108">
-        <v>0.476076</v>
+        <v>0.49522300000000002</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>82</v>
+      <c r="F108" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D109">
-        <v>1.420598</v>
+        <v>1.557985</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>82</v>
+      <c r="F109" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D110">
-        <v>2.64141</v>
+        <v>3.0136639999999999</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>83</v>
+      <c r="F110" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D111">
-        <v>75.636104000000003</v>
+        <v>86.968055000000007</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>83</v>
+      <c r="F111" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D112">
-        <v>79.810288</v>
+        <v>91.697288999999998</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>83</v>
+      <c r="F112" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D113">
-        <v>0.73585800000000001</v>
+        <v>0.805952</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>83</v>
+      <c r="F113" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D114">
-        <v>0.64887700000000004</v>
+        <v>0.723298</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>84</v>
+      <c r="F114" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D115">
-        <v>0.93990300000000004</v>
+        <v>1.0679940000000001</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>84</v>
+      <c r="F115" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D116">
-        <v>0.77978999999999998</v>
+        <v>0.84596099999999996</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>84</v>
+      <c r="F116" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D117">
-        <v>0.82386099999999995</v>
+        <v>0.85240800000000005</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>84</v>
+      <c r="F117" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D118">
-        <v>0.84272999999999998</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>84</v>
+      <c r="F118" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D119">
-        <v>0.590341</v>
+        <v>0.65785400000000005</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>84</v>
+      <c r="F119" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D120">
-        <v>0.635907</v>
+        <v>0.67615800000000004</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>84</v>
+      <c r="F120" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B121" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D121">
-        <v>0.57410399999999995</v>
+        <v>0.61882999999999999</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>84</v>
+      <c r="F121" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D122">
-        <v>0.81010700000000002</v>
+        <v>0.86835799999999996</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>84</v>
+      <c r="F122" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D123">
-        <v>0.76879299999999995</v>
+        <v>0.83942000000000005</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>84</v>
+      <c r="F123" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="B124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D124">
-        <v>0.65143799999999996</v>
+        <v>0.76916399999999996</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>84</v>
+      <c r="F124" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D125">
-        <v>0.58096300000000001</v>
+        <v>0.62635200000000002</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>84</v>
+      <c r="F125" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D126">
-        <v>0.65843799999999997</v>
+        <v>0.70365599999999995</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>84</v>
+      <c r="F126" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
